--- a/MoSCoW.xlsx
+++ b/MoSCoW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Must have</t>
   </si>
@@ -30,40 +30,28 @@
     <t xml:space="preserve">Would have </t>
   </si>
   <si>
-    <t>Movement</t>
-  </si>
-  <si>
-    <t>Jumping</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>Platforms</t>
-  </si>
-  <si>
-    <t>level 1</t>
-  </si>
-  <si>
-    <t>Enemies</t>
-  </si>
-  <si>
-    <t>Power ups</t>
-  </si>
-  <si>
     <t>Collectables</t>
   </si>
   <si>
-    <t>Rope</t>
-  </si>
-  <si>
-    <t>Effects</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Secret level</t>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Rotation-Level</t>
+  </si>
+  <si>
+    <t>Obstacles</t>
+  </si>
+  <si>
+    <t>End-Point</t>
+  </si>
+  <si>
+    <t>Spikes</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>Parrallel</t>
   </si>
 </sst>
 </file>
@@ -415,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,47 +430,33 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
